--- a/data/trans_orig/P14B35-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B35-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38A79D04-534C-4C46-A121-BB47338E497E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18706E4A-1475-4BCE-BADA-FD8564109D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53DFD2FC-7197-40EF-8545-85DDF6738AB5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8898CBF-E9B1-44B5-B06B-CC31BFAFDA8F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -106,19 +106,19 @@
     <t>39,92%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
   </si>
   <si>
     <t>60,08%</t>
   </si>
   <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -127,19 +127,19 @@
     <t>31,65%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
   </si>
   <si>
     <t>68,35%</t>
   </si>
   <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -148,19 +148,19 @@
     <t>36,47%</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -169,37 +169,31 @@
     <t>20,47%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
   </si>
   <si>
     <t>79,53%</t>
   </si>
   <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>32,04%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
+    <t>24,02%</t>
   </si>
   <si>
     <t>67,96%</t>
   </si>
   <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>75,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -226,73 +220,73 @@
     <t>27,92%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
   </si>
   <si>
     <t>72,08%</t>
   </si>
   <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>29,46%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
   </si>
   <si>
     <t>70,54%</t>
   </si>
   <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>28,71%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
   </si>
   <si>
     <t>71,29%</t>
   </si>
   <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
   </si>
   <si>
     <t>Población cuyo dolor menstrual le limita en 2023 (Tasa respuesta: 2,91%)</t>
@@ -301,97 +295,103 @@
     <t>67,04%</t>
   </si>
   <si>
+    <t>15,3%</t>
+  </si>
+  <si>
     <t>32,96%</t>
   </si>
   <si>
+    <t>84,7%</t>
+  </si>
+  <si>
     <t>61,68%</t>
   </si>
   <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
   </si>
   <si>
     <t>38,32%</t>
   </si>
   <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
   </si>
   <si>
     <t>43,49%</t>
   </si>
   <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
   </si>
   <si>
     <t>56,51%</t>
   </si>
   <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
   </si>
   <si>
     <t>52,23%</t>
   </si>
   <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
   </si>
   <si>
     <t>46,15%</t>
   </si>
   <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
   </si>
   <si>
     <t>53,85%</t>
   </si>
   <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
   </si>
   <si>
     <t>49,26%</t>
   </si>
   <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
   </si>
   <si>
     <t>50,74%</t>
   </si>
   <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
   </si>
 </sst>
 </file>
@@ -803,7 +803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD8D994-433E-4E36-AF8A-6DEDAA6D6EC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22EB2A2-41B3-4916-9D37-5F0C401B84DB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1691,7 +1691,7 @@
         <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -1706,7 +1706,7 @@
         <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,13 +1734,13 @@
         <v>92706</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -1749,13 +1749,13 @@
         <v>92706</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,7 +1809,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9984F3B4-C8C8-4D2B-BAC8-D249872EC83D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C1A60A-054D-492B-9C57-B8E01607D943}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1847,7 +1847,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1967,7 +1967,7 @@
         <v>816</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>17</v>
@@ -1982,7 +1982,7 @@
         <v>816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>17</v>
@@ -2016,7 +2016,7 @@
         <v>1773</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
@@ -2031,7 +2031,7 @@
         <v>1773</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
@@ -2119,10 +2119,10 @@
         <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>17</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,7 +2168,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2183,7 +2183,7 @@
         <v>14</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2265,13 +2265,13 @@
         <v>2906</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2280,13 +2280,13 @@
         <v>2906</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,13 +2314,13 @@
         <v>7503</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -2329,13 +2329,13 @@
         <v>7503</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,13 +2414,13 @@
         <v>3848</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2429,13 +2429,13 @@
         <v>3848</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,13 +2463,13 @@
         <v>9211</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2478,13 +2478,13 @@
         <v>9211</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,13 +2563,13 @@
         <v>9827</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2578,13 +2578,13 @@
         <v>9827</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2612,13 @@
         <v>24406</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2627,13 +2627,13 @@
         <v>24406</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2712,13 @@
         <v>17396</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -2727,13 +2727,13 @@
         <v>17396</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,13 +2761,13 @@
         <v>48992</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>49</v>
@@ -2776,13 +2776,13 @@
         <v>48992</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,7 +2836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2857,7 +2857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93211E48-5637-4B7A-A901-8387DDB62AE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD19A18-42A7-439F-9040-27033C308579}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2874,7 +2874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2994,10 +2994,10 @@
         <v>4647</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -3009,10 +3009,10 @@
         <v>4647</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -3043,13 +3043,13 @@
         <v>2285</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3058,13 +3058,13 @@
         <v>2285</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,7 +3863,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B35-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B35-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18706E4A-1475-4BCE-BADA-FD8564109D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9272EA91-360F-46CF-B659-B3C34A454DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8898CBF-E9B1-44B5-B06B-CC31BFAFDA8F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{325C9EB6-FF04-454E-A6B3-4E04A30D01DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="120">
   <si>
     <t>Población cuyo dolor menstrual le limita en 2012 (Tasa respuesta: 2,03%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -79,7 +79,7 @@
     <t>50,11%</t>
   </si>
   <si>
-    <t>9,04%</t>
+    <t>12,39%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,73 +94,73 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>90,96%</t>
+    <t>87,61%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>39,92%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
   <si>
     <t>60,08%</t>
   </si>
   <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>31,65%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
   </si>
   <si>
     <t>68,35%</t>
   </si>
   <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>36,47%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -169,37 +169,43 @@
     <t>20,47%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
   </si>
   <si>
     <t>79,53%</t>
   </si>
   <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>32,04%</t>
   </si>
   <si>
-    <t>24,02%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>67,96%</t>
   </si>
   <si>
-    <t>75,98%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo dolor menstrual le limita en 2015 (Tasa respuesta: 1,02%)</t>
+    <t>Población cuyo dolor menstrual le limita en 2016 (Tasa respuesta: 1,02%)</t>
   </si>
   <si>
     <t>31,52%</t>
@@ -220,73 +226,73 @@
     <t>27,92%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
   </si>
   <si>
     <t>72,08%</t>
   </si>
   <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
   </si>
   <si>
     <t>29,46%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
   </si>
   <si>
     <t>70,54%</t>
   </si>
   <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>28,71%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
   </si>
   <si>
     <t>71,29%</t>
   </si>
   <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>Población cuyo dolor menstrual le limita en 2023 (Tasa respuesta: 2,91%)</t>
@@ -803,7 +809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22EB2A2-41B3-4916-9D37-5F0C401B84DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659402C4-9D20-44AC-95F0-9BE8E0FBE9DB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1691,7 +1697,7 @@
         <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -1706,7 +1712,7 @@
         <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,13 +1740,13 @@
         <v>92706</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -1749,13 +1755,13 @@
         <v>92706</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,7 +1815,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C1A60A-054D-492B-9C57-B8E01607D943}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3301A715-5F69-4288-8052-C55631CDA444}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1847,7 +1853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1967,7 +1973,7 @@
         <v>816</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>17</v>
@@ -1982,7 +1988,7 @@
         <v>816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>17</v>
@@ -2016,7 +2022,7 @@
         <v>1773</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
@@ -2031,7 +2037,7 @@
         <v>1773</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
@@ -2119,10 +2125,10 @@
         <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2134,10 +2140,10 @@
         <v>17</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,7 +2174,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2183,7 +2189,7 @@
         <v>14</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2265,13 +2271,13 @@
         <v>2906</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2280,13 +2286,13 @@
         <v>2906</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,13 +2320,13 @@
         <v>7503</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -2329,13 +2335,13 @@
         <v>7503</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,13 +2420,13 @@
         <v>3848</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2429,13 +2435,13 @@
         <v>3848</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,13 +2469,13 @@
         <v>9211</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2478,13 +2484,13 @@
         <v>9211</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,13 +2569,13 @@
         <v>9827</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2578,13 +2584,13 @@
         <v>9827</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2618,13 @@
         <v>24406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2627,13 +2633,13 @@
         <v>24406</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2718,13 @@
         <v>17396</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -2727,13 +2733,13 @@
         <v>17396</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,13 +2767,13 @@
         <v>48992</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>49</v>
@@ -2776,13 +2782,13 @@
         <v>48992</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,7 +2842,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2857,7 +2863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD19A18-42A7-439F-9040-27033C308579}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B370122-EEE8-4802-9B37-2E02213F2582}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2874,7 +2880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2994,10 +3000,10 @@
         <v>4647</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -3009,10 +3015,10 @@
         <v>4647</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -3043,13 +3049,13 @@
         <v>2285</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3058,13 +3064,13 @@
         <v>2285</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3149,13 @@
         <v>14451</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -3158,13 +3164,13 @@
         <v>14451</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3198,13 @@
         <v>8977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -3207,13 +3213,13 @@
         <v>8977</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3298,13 @@
         <v>24981</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3307,13 +3313,13 @@
         <v>24981</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3347,13 @@
         <v>32457</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M11" s="7">
         <v>46</v>
@@ -3356,13 +3362,13 @@
         <v>32457</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3447,13 @@
         <v>30393</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -3456,13 +3462,13 @@
         <v>30393</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3496,13 @@
         <v>27795</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3505,13 +3511,13 @@
         <v>27795</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3596,13 @@
         <v>37910</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -3605,13 +3611,13 @@
         <v>37910</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3645,13 @@
         <v>44239</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -3654,13 +3660,13 @@
         <v>44239</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3745,13 @@
         <v>112382</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -3754,13 +3760,13 @@
         <v>112382</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3794,13 @@
         <v>115753</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>132</v>
@@ -3803,13 +3809,13 @@
         <v>115753</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,7 +3869,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
